--- a/biology/Histoire de la zoologie et de la botanique/Liste_des_œuvres_de_Théophraste/Liste_des_œuvres_de_Théophraste.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_des_œuvres_de_Théophraste/Liste_des_œuvres_de_Théophraste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_%C5%93uvres_de_Th%C3%A9ophraste</t>
+          <t>Liste_des_œuvres_de_Théophraste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette page recense les œuvres de Théophraste d'Eresós sur l'île de Lesbos (vers 371 av. J.-C. à Eresós - vers 288 av. J.-C.),  un philosophe grec qui fut le disciple d'Aristote et son successeur à la tête du Lycée. Cette liste est celle que donne Diogène Laërce dans le livre V de ses Vies, doctrines et sentences des philosophes illustres[1].
-Suzanne Saïd relève que la tradition prête à Théophrate quelque deux-cent vingt titres[2] (la liste ci-après en compte 231). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette page recense les œuvres de Théophraste d'Eresós sur l'île de Lesbos (vers 371 av. J.-C. à Eresós - vers 288 av. J.-C.),  un philosophe grec qui fut le disciple d'Aristote et son successeur à la tête du Lycée. Cette liste est celle que donne Diogène Laërce dans le livre V de ses Vies, doctrines et sentences des philosophes illustres.
+Suzanne Saïd relève que la tradition prête à Théophrate quelque deux-cent vingt titres (la liste ci-après en compte 231). 
 </t>
         </is>
       </c>
